--- a/submission/eed1e9537976_TGS.xlsx
+++ b/submission/eed1e9537976_TGS.xlsx
@@ -31828,7 +31828,7 @@
         <v>9961.5</v>
       </c>
       <c r="B3931">
-        <v>118.9017944335938</v>
+        <v>121.2699890136719</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>9962</v>
       </c>
       <c r="B3932">
-        <v>119.8141403198242</v>
+        <v>121.4445343017578</v>
       </c>
     </row>
     <row r="3933" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>9962.5</v>
       </c>
       <c r="B3933">
-        <v>120.9579772949219</v>
+        <v>122.5883712768555</v>
       </c>
     </row>
     <row r="3934" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>9963</v>
       </c>
       <c r="B3934">
-        <v>121.3556137084961</v>
+        <v>122.9248657226562</v>
       </c>
     </row>
     <row r="3935" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>9963.5</v>
       </c>
       <c r="B3935">
-        <v>121.3556137084961</v>
+        <v>122.9248657226562</v>
       </c>
     </row>
     <row r="3936" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>9964</v>
       </c>
       <c r="B3936">
-        <v>122.6417388916016</v>
+        <v>123.6400680541992</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>9964.5</v>
       </c>
       <c r="B3937">
-        <v>124.062744140625</v>
+        <v>126.3680953979492</v>
       </c>
     </row>
     <row r="3938" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>9965</v>
       </c>
       <c r="B3938">
-        <v>127.3730545043945</v>
+        <v>131.1286315917969</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>9965.5</v>
       </c>
       <c r="B3939">
-        <v>127.3730545043945</v>
+        <v>131.1286315917969</v>
       </c>
     </row>
     <row r="3940" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>9966</v>
       </c>
       <c r="B3940">
-        <v>127.3980255126953</v>
+        <v>129.7033843994141</v>
       </c>
     </row>
     <row r="3941" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>9966.5</v>
       </c>
       <c r="B3941">
-        <v>124.062744140625</v>
+        <v>126.3680953979492</v>
       </c>
     </row>
     <row r="3942" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>9967</v>
       </c>
       <c r="B3942">
-        <v>124.062744140625</v>
+        <v>126.3680953979492</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>9967.5</v>
       </c>
       <c r="B3943">
-        <v>127.3980255126953</v>
+        <v>129.7033843994141</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>9968</v>
       </c>
       <c r="B3944">
-        <v>127.3980255126953</v>
+        <v>129.7033843994141</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>9968.5</v>
       </c>
       <c r="B3945">
-        <v>130.1046752929688</v>
+        <v>131.9913177490234</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>9969</v>
       </c>
       <c r="B3946">
-        <v>127.1931610107422</v>
+        <v>127.9829711914062</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>9969.5</v>
       </c>
       <c r="B3947">
-        <v>127.1447448730469</v>
+        <v>127.9345474243164</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>9970</v>
       </c>
       <c r="B3948">
-        <v>127.1931610107422</v>
+        <v>127.9829711914062</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>9970.5</v>
       </c>
       <c r="B3949">
-        <v>128.9451446533203</v>
+        <v>129.7350006103516</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>9971</v>
       </c>
       <c r="B3950">
-        <v>130.1046752929688</v>
+        <v>131.9913177490234</v>
       </c>
     </row>
     <row r="3951" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>9971.5</v>
       </c>
       <c r="B3951">
-        <v>129.5955047607422</v>
+        <v>131.90087890625</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>9972</v>
       </c>
       <c r="B3952">
-        <v>119.2817077636719</v>
+        <v>122.1590576171875</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>9972.5</v>
       </c>
       <c r="B3953">
-        <v>120.8139953613281</v>
+        <v>125.2082138061523</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>9973</v>
       </c>
       <c r="B3954">
-        <v>119.9687347412109</v>
+        <v>121.5379867553711</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>9973.5</v>
       </c>
       <c r="B3955">
-        <v>120.1846084594727</v>
+        <v>123.0619583129883</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>9974</v>
       </c>
       <c r="B3956">
-        <v>117.6046752929688</v>
+        <v>120.4820251464844</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>9974.5</v>
       </c>
       <c r="B3957">
-        <v>118.975959777832</v>
+        <v>122.5270004272461</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>9975</v>
       </c>
       <c r="B3958">
-        <v>120.0481796264648</v>
+        <v>121.1826934814453</v>
       </c>
     </row>
   </sheetData>
